--- a/Code/Results/Cases/Case_5_207/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_207/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.50688695811298</v>
+        <v>19.9522100650596</v>
       </c>
       <c r="C2">
-        <v>17.38722507388674</v>
+        <v>9.523817997876256</v>
       </c>
       <c r="D2">
-        <v>5.056043329659922</v>
+        <v>7.263747435840701</v>
       </c>
       <c r="E2">
-        <v>5.655463802384435</v>
+        <v>9.389834134098166</v>
       </c>
       <c r="F2">
-        <v>40.01467242255107</v>
+        <v>39.11008160143846</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>26.67122009162577</v>
+        <v>30.67827950301364</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.777351888649862</v>
+        <v>10.49374847646194</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.74883251693435</v>
+        <v>19.51527105547705</v>
       </c>
       <c r="C3">
-        <v>16.15554762622961</v>
+        <v>8.959559772404385</v>
       </c>
       <c r="D3">
-        <v>5.102315573799294</v>
+        <v>7.282965234281217</v>
       </c>
       <c r="E3">
-        <v>5.682706666714375</v>
+        <v>9.405329733874636</v>
       </c>
       <c r="F3">
-        <v>38.063996413204</v>
+        <v>38.73492891471717</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>25.83361015667311</v>
+        <v>30.58314328341842</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.494927746606465</v>
+        <v>10.47525806446455</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.61660027174857</v>
+        <v>19.24852251537796</v>
       </c>
       <c r="C4">
-        <v>15.36293885882304</v>
+        <v>8.596659747759007</v>
       </c>
       <c r="D4">
-        <v>5.134116374100193</v>
+        <v>7.295720102052073</v>
       </c>
       <c r="E4">
-        <v>5.700855963758906</v>
+        <v>9.415484258095537</v>
       </c>
       <c r="F4">
-        <v>36.86547721041991</v>
+        <v>38.5145948598505</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>25.33648496194114</v>
+        <v>30.53209033613327</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.323150902159833</v>
+        <v>10.46620087574232</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.14172626765338</v>
+        <v>19.14038131367918</v>
       </c>
       <c r="C5">
-        <v>15.03060615589065</v>
+        <v>8.444775081115568</v>
       </c>
       <c r="D5">
-        <v>5.147864569746869</v>
+        <v>7.301156872693566</v>
       </c>
       <c r="E5">
-        <v>5.708600389713202</v>
+        <v>9.419783543343964</v>
       </c>
       <c r="F5">
-        <v>36.37721071535607</v>
+        <v>38.42740137791341</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>25.13818093510427</v>
+        <v>30.51313955152016</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.253614490123454</v>
+        <v>10.46308911732519</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.0620541116728</v>
+        <v>19.12246361237931</v>
       </c>
       <c r="C6">
-        <v>14.97485311569456</v>
+        <v>8.419317679726648</v>
       </c>
       <c r="D6">
-        <v>5.150193395622988</v>
+        <v>7.302074050889154</v>
       </c>
       <c r="E6">
-        <v>5.70990714352502</v>
+        <v>9.420507182230978</v>
       </c>
       <c r="F6">
-        <v>36.29615485933707</v>
+        <v>38.41308179345118</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>25.10551017709807</v>
+        <v>30.51010478251477</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.242097793819482</v>
+        <v>10.46260743214762</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61025078981079</v>
+        <v>19.24706158014746</v>
       </c>
       <c r="C7">
-        <v>15.35849496234592</v>
+        <v>8.594627374023233</v>
       </c>
       <c r="D7">
-        <v>5.134298670281788</v>
+        <v>7.295792457780266</v>
       </c>
       <c r="E7">
-        <v>5.700959008272687</v>
+        <v>9.415541586568592</v>
       </c>
       <c r="F7">
-        <v>36.85889118458259</v>
+        <v>38.51340833639572</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>25.33379328419502</v>
+        <v>30.53182725196273</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.322211153214144</v>
+        <v>10.46615656266549</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.91152942478071</v>
+        <v>19.80133929102343</v>
       </c>
       <c r="C8">
-        <v>16.96996413724219</v>
+        <v>9.332746818840914</v>
       </c>
       <c r="D8">
-        <v>5.071254153250971</v>
+        <v>7.270174846211089</v>
       </c>
       <c r="E8">
-        <v>5.664556131363615</v>
+        <v>9.395044307103618</v>
       </c>
       <c r="F8">
-        <v>39.34241394892621</v>
+        <v>38.97869918495624</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>26.37881991601488</v>
+        <v>30.64395101892312</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.679662001757164</v>
+        <v>10.48689764756647</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.01658509302349</v>
+        <v>20.89294613006417</v>
       </c>
       <c r="C9">
-        <v>19.85145065281386</v>
+        <v>10.70302579325677</v>
       </c>
       <c r="D9">
-        <v>4.977790305208608</v>
+        <v>7.227566252419511</v>
       </c>
       <c r="E9">
-        <v>5.604931925075054</v>
+        <v>9.359916952761882</v>
       </c>
       <c r="F9">
-        <v>44.19767753625429</v>
+        <v>39.9669030271473</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>28.56736150046674</v>
+        <v>30.9220183063048</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.391864788023605</v>
+        <v>10.54569146654217</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.80196136756731</v>
+        <v>21.68815800892231</v>
       </c>
       <c r="C10">
-        <v>21.81410416352615</v>
+        <v>11.65592536534008</v>
       </c>
       <c r="D10">
-        <v>4.932823736471929</v>
+        <v>7.200979944226457</v>
       </c>
       <c r="E10">
-        <v>5.569086350200127</v>
+        <v>9.337182297514707</v>
       </c>
       <c r="F10">
-        <v>47.75456935832258</v>
+        <v>40.73387671377589</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>30.26727940076676</v>
+        <v>31.16136813160077</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.920842211377176</v>
+        <v>10.59977624191547</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.02382790991422</v>
+        <v>22.04655271727565</v>
       </c>
       <c r="C11">
-        <v>22.67747639192454</v>
+        <v>12.06469726788564</v>
       </c>
       <c r="D11">
-        <v>4.918952676451821</v>
+        <v>7.18992462926238</v>
       </c>
       <c r="E11">
-        <v>5.554728773697808</v>
+        <v>9.327503741308254</v>
       </c>
       <c r="F11">
-        <v>49.37342797716146</v>
+        <v>41.09048443099082</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>31.06327204564315</v>
+        <v>31.27773105724922</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.162877976853727</v>
+        <v>10.62670200037033</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.48048726741739</v>
+        <v>22.18163975910087</v>
       </c>
       <c r="C12">
-        <v>23.00057193101546</v>
+        <v>12.21595684453953</v>
       </c>
       <c r="D12">
-        <v>4.91479130274932</v>
+        <v>7.185888941332425</v>
       </c>
       <c r="E12">
-        <v>5.549595133420701</v>
+        <v>9.32393389675793</v>
       </c>
       <c r="F12">
-        <v>49.98704223692574</v>
+        <v>41.22652624670572</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>31.36828081138097</v>
+        <v>31.32285553176661</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.254774041279724</v>
+        <v>10.63722759764472</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.38239769549198</v>
+        <v>22.15257657828222</v>
       </c>
       <c r="C13">
-        <v>22.9311516748974</v>
+        <v>12.1835372329176</v>
       </c>
       <c r="D13">
-        <v>4.915636445556731</v>
+        <v>7.186751374371807</v>
       </c>
       <c r="E13">
-        <v>5.550686852295471</v>
+        <v>9.32469849515142</v>
       </c>
       <c r="F13">
-        <v>49.854853624774</v>
+        <v>41.1971843396047</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>31.30242614255015</v>
+        <v>31.31309027665774</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.234970863012398</v>
+        <v>10.63494614906975</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.06151556730455</v>
+        <v>22.0576798307479</v>
       </c>
       <c r="C14">
-        <v>22.70413226670672</v>
+        <v>12.07721218969023</v>
       </c>
       <c r="D14">
-        <v>4.91858753708747</v>
+        <v>7.189589582499603</v>
       </c>
       <c r="E14">
-        <v>5.554300200409957</v>
+        <v>9.327208140953198</v>
       </c>
       <c r="F14">
-        <v>49.42389519726721</v>
+        <v>41.10165720053406</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>31.08829128354295</v>
+        <v>31.28142231951292</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.170433134839291</v>
+        <v>10.62756137361978</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.86419515135056</v>
+        <v>21.99946667488261</v>
       </c>
       <c r="C15">
-        <v>22.56458819635787</v>
+        <v>12.01162544166568</v>
       </c>
       <c r="D15">
-        <v>4.920541962411843</v>
+        <v>7.191347734661709</v>
       </c>
       <c r="E15">
-        <v>5.556553733013373</v>
+        <v>9.328757765271874</v>
       </c>
       <c r="F15">
-        <v>49.16001465455995</v>
+        <v>41.04327141083486</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>30.95760541548351</v>
+        <v>31.26216237793171</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.130935142402304</v>
+        <v>10.6230807400358</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.72123798668171</v>
+        <v>21.66465582365625</v>
       </c>
       <c r="C16">
-        <v>21.75712020242312</v>
+        <v>11.62871564968221</v>
       </c>
       <c r="D16">
-        <v>4.933874579347215</v>
+        <v>7.20172345369761</v>
       </c>
       <c r="E16">
-        <v>5.570065737250887</v>
+        <v>9.337828148803782</v>
       </c>
       <c r="F16">
-        <v>47.64882522075028</v>
+        <v>40.71071762306261</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>30.21574121509283</v>
+        <v>31.15391281154286</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.905055703718839</v>
+        <v>10.59806293253547</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.00880066039584</v>
+        <v>21.4582940436476</v>
       </c>
       <c r="C17">
-        <v>21.25448202169414</v>
+        <v>11.38749865246183</v>
       </c>
       <c r="D17">
-        <v>4.943836019787306</v>
+        <v>7.208355652137791</v>
       </c>
       <c r="E17">
-        <v>5.5788691117644</v>
+        <v>9.343562340819176</v>
       </c>
       <c r="F17">
-        <v>46.72224068857457</v>
+        <v>40.50860579131532</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>29.7666415688134</v>
+        <v>31.08941104073567</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.766865881498241</v>
+        <v>10.58330702486891</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.59473790270567</v>
+        <v>21.33929300318175</v>
       </c>
       <c r="C18">
-        <v>20.96257955349235</v>
+        <v>11.24643033151882</v>
       </c>
       <c r="D18">
-        <v>4.950175451638457</v>
+        <v>7.212268026151149</v>
       </c>
       <c r="E18">
-        <v>5.584114398231248</v>
+        <v>9.346922964989735</v>
       </c>
       <c r="F18">
-        <v>46.18933043238515</v>
+        <v>40.39308836884135</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>29.51044269156596</v>
+        <v>31.05301658005004</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.687510711312031</v>
+        <v>10.57503870625486</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.45379385911928</v>
+        <v>21.29895317885883</v>
       </c>
       <c r="C19">
-        <v>20.86325482255072</v>
+        <v>11.19826682144454</v>
       </c>
       <c r="D19">
-        <v>4.952422578533771</v>
+        <v>7.21360943030642</v>
       </c>
       <c r="E19">
-        <v>5.585920956116444</v>
+        <v>9.348071549903054</v>
       </c>
       <c r="F19">
-        <v>46.00889131101294</v>
+        <v>40.35410507375902</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>29.42405257211063</v>
+        <v>31.04081560647282</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.660663565820867</v>
+        <v>10.57227692139437</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.08508142677423</v>
+        <v>21.48029449949741</v>
       </c>
       <c r="C20">
-        <v>21.30827568344295</v>
+        <v>11.41341727615783</v>
       </c>
       <c r="D20">
-        <v>4.942711512455323</v>
+        <v>7.207639521267476</v>
       </c>
       <c r="E20">
-        <v>5.577913006791269</v>
+        <v>9.342945462518353</v>
       </c>
       <c r="F20">
-        <v>46.82087061565731</v>
+        <v>40.53004594952854</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>29.81422846248129</v>
+        <v>31.0962044790875</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.781562967270636</v>
+        <v>10.5848551937851</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.15592613286902</v>
+        <v>22.0855715105438</v>
       </c>
       <c r="C21">
-        <v>22.77091431388073</v>
+        <v>12.10853817571899</v>
       </c>
       <c r="D21">
-        <v>4.917689846885376</v>
+        <v>7.18875183084786</v>
       </c>
       <c r="E21">
-        <v>5.553230436360463</v>
+        <v>9.326468414647168</v>
       </c>
       <c r="F21">
-        <v>49.5504574288374</v>
+        <v>41.12968949046304</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>31.1510875677409</v>
+        <v>31.29069532156301</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.189382393996311</v>
+        <v>10.62972155989268</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.4744380732875</v>
+        <v>22.47742571362571</v>
       </c>
       <c r="C22">
-        <v>23.70464909445833</v>
+        <v>12.54225302758589</v>
       </c>
       <c r="D22">
-        <v>4.907782018401917</v>
+        <v>7.177286770266905</v>
       </c>
       <c r="E22">
-        <v>5.538880692080212</v>
+        <v>9.316254604060225</v>
       </c>
       <c r="F22">
-        <v>51.33819371472246</v>
+        <v>41.52738273510347</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>32.04591588745397</v>
+        <v>31.42397834378222</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.457367523299217</v>
+        <v>10.66096188282135</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.7737433152605</v>
+        <v>22.26867317683506</v>
       </c>
       <c r="C23">
-        <v>23.20818215707</v>
+        <v>12.31264856866924</v>
       </c>
       <c r="D23">
-        <v>4.91242633942958</v>
+        <v>7.183325006219819</v>
       </c>
       <c r="E23">
-        <v>5.546367568592549</v>
+        <v>9.321655200258956</v>
       </c>
       <c r="F23">
-        <v>50.38348859499578</v>
+        <v>41.31463185786355</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>31.56626400659634</v>
+        <v>31.35228357278137</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.314185363961426</v>
+        <v>10.64411449410309</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.05060885909736</v>
+        <v>21.47034920625877</v>
       </c>
       <c r="C24">
-        <v>21.2839647209697</v>
+        <v>11.4017069104727</v>
       </c>
       <c r="D24">
-        <v>4.943218005165146</v>
+        <v>7.207962974417146</v>
       </c>
       <c r="E24">
-        <v>5.578344690054875</v>
+        <v>9.343224153959056</v>
       </c>
       <c r="F24">
-        <v>46.7762806954015</v>
+        <v>40.52035072991106</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>29.79270823832193</v>
+        <v>31.09313102004068</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.774918130946116</v>
+        <v>10.58415459644806</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.94800853841176</v>
+        <v>20.59815977354553</v>
       </c>
       <c r="C25">
-        <v>19.10027211644491</v>
+        <v>10.33007424475663</v>
       </c>
       <c r="D25">
-        <v>4.999344553168327</v>
+        <v>7.238269434440181</v>
       </c>
       <c r="E25">
-        <v>5.619729024898511</v>
+        <v>9.368878968164305</v>
       </c>
       <c r="F25">
-        <v>42.88645766698919</v>
+        <v>39.6919812153371</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>27.9598301739697</v>
+        <v>30.84059858920514</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.198171054047974</v>
+        <v>10.52786066065583</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_207/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_207/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.9522100650596</v>
+        <v>24.50688695811293</v>
       </c>
       <c r="C2">
-        <v>9.523817997876256</v>
+        <v>17.38722507388686</v>
       </c>
       <c r="D2">
-        <v>7.263747435840701</v>
+        <v>5.056043329660103</v>
       </c>
       <c r="E2">
-        <v>9.389834134098166</v>
+        <v>5.655463802384568</v>
       </c>
       <c r="F2">
-        <v>39.11008160143846</v>
+        <v>40.01467242255112</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>30.67827950301364</v>
+        <v>26.67122009162587</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.49374847646194</v>
+        <v>7.777351888649877</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.51527105547705</v>
+        <v>22.74883251693432</v>
       </c>
       <c r="C3">
-        <v>8.959559772404385</v>
+        <v>16.15554762622961</v>
       </c>
       <c r="D3">
-        <v>7.282965234281217</v>
+        <v>5.102315573799316</v>
       </c>
       <c r="E3">
-        <v>9.405329733874636</v>
+        <v>5.682706666714441</v>
       </c>
       <c r="F3">
-        <v>38.73492891471717</v>
+        <v>38.06399641320407</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>30.58314328341842</v>
+        <v>25.83361015667324</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.47525806446455</v>
+        <v>7.494927746606497</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.24852251537796</v>
+        <v>21.61660027174856</v>
       </c>
       <c r="C4">
-        <v>8.596659747759007</v>
+        <v>15.36293885882304</v>
       </c>
       <c r="D4">
-        <v>7.295720102052073</v>
+        <v>5.134116374100238</v>
       </c>
       <c r="E4">
-        <v>9.415484258095537</v>
+        <v>5.700855963758841</v>
       </c>
       <c r="F4">
-        <v>38.5145948598505</v>
+        <v>36.8654772104199</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>30.53209033613327</v>
+        <v>25.3364849619411</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.46620087574232</v>
+        <v>7.3231509021598</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.14038131367918</v>
+        <v>21.1417262676534</v>
       </c>
       <c r="C5">
-        <v>8.444775081115568</v>
+        <v>15.03060615589065</v>
       </c>
       <c r="D5">
-        <v>7.301156872693566</v>
+        <v>5.147864569746936</v>
       </c>
       <c r="E5">
-        <v>9.419783543343964</v>
+        <v>5.708600389713334</v>
       </c>
       <c r="F5">
-        <v>38.42740137791341</v>
+        <v>36.37721071535604</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>30.51313955152016</v>
+        <v>25.13818093510427</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.46308911732519</v>
+        <v>7.253614490123502</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.12246361237931</v>
+        <v>21.06205411167283</v>
       </c>
       <c r="C6">
-        <v>8.419317679726648</v>
+        <v>14.9748531156945</v>
       </c>
       <c r="D6">
-        <v>7.302074050889154</v>
+        <v>5.150193395623016</v>
       </c>
       <c r="E6">
-        <v>9.420507182230978</v>
+        <v>5.709907143524896</v>
       </c>
       <c r="F6">
-        <v>38.41308179345118</v>
+        <v>36.29615485933711</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>30.51010478251477</v>
+        <v>25.10551017709804</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.46260743214762</v>
+        <v>7.242097793819386</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.24706158014746</v>
+        <v>21.61025078981072</v>
       </c>
       <c r="C7">
-        <v>8.594627374023233</v>
+        <v>15.35849496234572</v>
       </c>
       <c r="D7">
-        <v>7.295792457780266</v>
+        <v>5.134298670281967</v>
       </c>
       <c r="E7">
-        <v>9.415541586568592</v>
+        <v>5.70095900827268</v>
       </c>
       <c r="F7">
-        <v>38.51340833639572</v>
+        <v>36.85889118458275</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>30.53182725196273</v>
+        <v>25.33379328419521</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.46615656266549</v>
+        <v>7.322211153214182</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.80133929102343</v>
+        <v>23.91152942478069</v>
       </c>
       <c r="C8">
-        <v>9.332746818840914</v>
+        <v>16.9699641372421</v>
       </c>
       <c r="D8">
-        <v>7.270174846211089</v>
+        <v>5.071254153251263</v>
       </c>
       <c r="E8">
-        <v>9.395044307103618</v>
+        <v>5.664556131363682</v>
       </c>
       <c r="F8">
-        <v>38.97869918495624</v>
+        <v>39.34241394892639</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>30.64395101892312</v>
+        <v>26.37881991601503</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.48689764756647</v>
+        <v>7.679662001757171</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.89294613006417</v>
+        <v>28.01658509302369</v>
       </c>
       <c r="C9">
-        <v>10.70302579325677</v>
+        <v>19.85145065281381</v>
       </c>
       <c r="D9">
-        <v>7.227566252419511</v>
+        <v>4.977790305208601</v>
       </c>
       <c r="E9">
-        <v>9.359916952761882</v>
+        <v>5.604931925075205</v>
       </c>
       <c r="F9">
-        <v>39.9669030271473</v>
+        <v>44.19767753625449</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>30.9220183063048</v>
+        <v>28.56736150046678</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.54569146654217</v>
+        <v>8.391864788023632</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.68815800892231</v>
+        <v>30.80196136756732</v>
       </c>
       <c r="C10">
-        <v>11.65592536534008</v>
+        <v>21.81410416352607</v>
       </c>
       <c r="D10">
-        <v>7.200979944226457</v>
+        <v>4.93282373647194</v>
       </c>
       <c r="E10">
-        <v>9.337182297514707</v>
+        <v>5.569086350200075</v>
       </c>
       <c r="F10">
-        <v>40.73387671377589</v>
+        <v>47.75456935832263</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>31.16136813160077</v>
+        <v>30.26727940076681</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.59977624191547</v>
+        <v>8.920842211377193</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.04655271727565</v>
+        <v>32.0238279099142</v>
       </c>
       <c r="C11">
-        <v>12.06469726788564</v>
+        <v>22.67747639192455</v>
       </c>
       <c r="D11">
-        <v>7.18992462926238</v>
+        <v>4.918952676451833</v>
       </c>
       <c r="E11">
-        <v>9.327503741308254</v>
+        <v>5.554728773697927</v>
       </c>
       <c r="F11">
-        <v>41.09048443099082</v>
+        <v>49.37342797716146</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>31.27773105724922</v>
+        <v>31.06327204564316</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.62670200037033</v>
+        <v>9.162877976853741</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.18163975910087</v>
+        <v>32.48048726741742</v>
       </c>
       <c r="C12">
-        <v>12.21595684453953</v>
+        <v>23.00057193101538</v>
       </c>
       <c r="D12">
-        <v>7.185888941332425</v>
+        <v>4.914791302749314</v>
       </c>
       <c r="E12">
-        <v>9.32393389675793</v>
+        <v>5.549595133420629</v>
       </c>
       <c r="F12">
-        <v>41.22652624670572</v>
+        <v>49.9870422369256</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>31.32285553176661</v>
+        <v>31.36828081138093</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.63722759764472</v>
+        <v>9.25477404127968</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.15257657828222</v>
+        <v>32.382397695492</v>
       </c>
       <c r="C13">
-        <v>12.1835372329176</v>
+        <v>22.93115167489741</v>
       </c>
       <c r="D13">
-        <v>7.186751374371807</v>
+        <v>4.915636445556676</v>
       </c>
       <c r="E13">
-        <v>9.32469849515142</v>
+        <v>5.55068685229547</v>
       </c>
       <c r="F13">
-        <v>41.1971843396047</v>
+        <v>49.85485362477397</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>31.31309027665774</v>
+        <v>31.30242614255013</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.63494614906975</v>
+        <v>9.234970863012402</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.0576798307479</v>
+        <v>32.0615155673046</v>
       </c>
       <c r="C14">
-        <v>12.07721218969023</v>
+        <v>22.70413226670694</v>
       </c>
       <c r="D14">
-        <v>7.189589582499603</v>
+        <v>4.918587537087501</v>
       </c>
       <c r="E14">
-        <v>9.327208140953198</v>
+        <v>5.554300200410082</v>
       </c>
       <c r="F14">
-        <v>41.10165720053406</v>
+        <v>49.42389519726727</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>31.28142231951292</v>
+        <v>31.08829128354297</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.62756137361978</v>
+        <v>9.170433134839296</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.99946667488261</v>
+        <v>31.86419515135059</v>
       </c>
       <c r="C15">
-        <v>12.01162544166568</v>
+        <v>22.56458819635803</v>
       </c>
       <c r="D15">
-        <v>7.191347734661709</v>
+        <v>4.920541962411785</v>
       </c>
       <c r="E15">
-        <v>9.328757765271874</v>
+        <v>5.556553733013444</v>
       </c>
       <c r="F15">
-        <v>41.04327141083486</v>
+        <v>49.16001465455999</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>31.26216237793171</v>
+        <v>30.95760541548353</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.6230807400358</v>
+        <v>9.130935142402294</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.66465582365625</v>
+        <v>30.72123798668168</v>
       </c>
       <c r="C16">
-        <v>11.62871564968221</v>
+        <v>21.75712020242318</v>
       </c>
       <c r="D16">
-        <v>7.20172345369761</v>
+        <v>4.933874579347215</v>
       </c>
       <c r="E16">
-        <v>9.337828148803782</v>
+        <v>5.570065737251021</v>
       </c>
       <c r="F16">
-        <v>40.71071762306261</v>
+        <v>47.64882522075047</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>31.15391281154286</v>
+        <v>30.21574121509302</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.59806293253547</v>
+        <v>8.905055703718844</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.4582940436476</v>
+        <v>30.00880066039584</v>
       </c>
       <c r="C17">
-        <v>11.38749865246183</v>
+        <v>21.25448202169417</v>
       </c>
       <c r="D17">
-        <v>7.208355652137791</v>
+        <v>4.943836019787372</v>
       </c>
       <c r="E17">
-        <v>9.343562340819176</v>
+        <v>5.578869111764577</v>
       </c>
       <c r="F17">
-        <v>40.50860579131532</v>
+        <v>46.72224068857463</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>31.08941104073567</v>
+        <v>29.76664156881346</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.58330702486891</v>
+        <v>8.766865881498243</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.33929300318175</v>
+        <v>29.59473790270563</v>
       </c>
       <c r="C18">
-        <v>11.24643033151882</v>
+        <v>20.96257955349224</v>
       </c>
       <c r="D18">
-        <v>7.212268026151149</v>
+        <v>4.950175451638462</v>
       </c>
       <c r="E18">
-        <v>9.346922964989735</v>
+        <v>5.584114398231186</v>
       </c>
       <c r="F18">
-        <v>40.39308836884135</v>
+        <v>46.18933043238511</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>31.05301658005004</v>
+        <v>29.51044269156593</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.57503870625486</v>
+        <v>8.687510711312026</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.29895317885883</v>
+        <v>29.45379385911931</v>
       </c>
       <c r="C19">
-        <v>11.19826682144454</v>
+        <v>20.86325482255079</v>
       </c>
       <c r="D19">
-        <v>7.21360943030642</v>
+        <v>4.952422578533782</v>
       </c>
       <c r="E19">
-        <v>9.348071549903054</v>
+        <v>5.585920956116438</v>
       </c>
       <c r="F19">
-        <v>40.35410507375902</v>
+        <v>46.00889131101316</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>31.04081560647282</v>
+        <v>29.42405257211079</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.57227692139437</v>
+        <v>8.660663565820865</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.48029449949741</v>
+        <v>30.08508142677409</v>
       </c>
       <c r="C20">
-        <v>11.41341727615783</v>
+        <v>21.308275683443</v>
       </c>
       <c r="D20">
-        <v>7.207639521267476</v>
+        <v>4.942711512455377</v>
       </c>
       <c r="E20">
-        <v>9.342945462518353</v>
+        <v>5.577913006791146</v>
       </c>
       <c r="F20">
-        <v>40.53004594952854</v>
+        <v>46.82087061565743</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>31.0962044790875</v>
+        <v>29.81422846248142</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.5848551937851</v>
+        <v>8.781562967270606</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.0855715105438</v>
+        <v>32.15592613286902</v>
       </c>
       <c r="C21">
-        <v>12.10853817571899</v>
+        <v>22.77091431388074</v>
       </c>
       <c r="D21">
-        <v>7.18875183084786</v>
+        <v>4.917689846885287</v>
       </c>
       <c r="E21">
-        <v>9.326468414647168</v>
+        <v>5.553230436360523</v>
       </c>
       <c r="F21">
-        <v>41.12968949046304</v>
+        <v>49.55045742883746</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>31.29069532156301</v>
+        <v>31.15108756774099</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.62972155989268</v>
+        <v>9.189382393996279</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.47742571362571</v>
+        <v>33.47443807328748</v>
       </c>
       <c r="C22">
-        <v>12.54225302758589</v>
+        <v>23.70464909445843</v>
       </c>
       <c r="D22">
-        <v>7.177286770266905</v>
+        <v>4.907782018401901</v>
       </c>
       <c r="E22">
-        <v>9.316254604060225</v>
+        <v>5.538880692080281</v>
       </c>
       <c r="F22">
-        <v>41.52738273510347</v>
+        <v>51.33819371472244</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>31.42397834378222</v>
+        <v>32.04591588745394</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.66096188282135</v>
+        <v>9.45736752329921</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.26867317683506</v>
+        <v>32.77374331526057</v>
       </c>
       <c r="C23">
-        <v>12.31264856866924</v>
+        <v>23.20818215706998</v>
       </c>
       <c r="D23">
-        <v>7.183325006219819</v>
+        <v>4.912426339429505</v>
       </c>
       <c r="E23">
-        <v>9.321655200258956</v>
+        <v>5.546367568592623</v>
       </c>
       <c r="F23">
-        <v>41.31463185786355</v>
+        <v>50.38348859499591</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>31.35228357278137</v>
+        <v>31.56626400659639</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.64411449410309</v>
+        <v>9.314185363961425</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.47034920625877</v>
+        <v>30.05060885909742</v>
       </c>
       <c r="C24">
-        <v>11.4017069104727</v>
+        <v>21.28396472096986</v>
       </c>
       <c r="D24">
-        <v>7.207962974417146</v>
+        <v>4.943218005165096</v>
       </c>
       <c r="E24">
-        <v>9.343224153959056</v>
+        <v>5.578344690055068</v>
       </c>
       <c r="F24">
-        <v>40.52035072991106</v>
+        <v>46.77628069540158</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>31.09313102004068</v>
+        <v>29.79270823832195</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.58415459644806</v>
+        <v>8.774918130946123</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.59815977354553</v>
+        <v>26.94800853841173</v>
       </c>
       <c r="C25">
-        <v>10.33007424475663</v>
+        <v>19.10027211644504</v>
       </c>
       <c r="D25">
-        <v>7.238269434440181</v>
+        <v>4.999344553168546</v>
       </c>
       <c r="E25">
-        <v>9.368878968164305</v>
+        <v>5.619729024898329</v>
       </c>
       <c r="F25">
-        <v>39.6919812153371</v>
+        <v>42.88645766698928</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>30.84059858920514</v>
+        <v>27.95983017396984</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.52786066065583</v>
+        <v>8.198171054047915</v>
       </c>
       <c r="M25">
         <v>0</v>
